--- a/sigle_model_cv .xlsx
+++ b/sigle_model_cv .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="132">
   <si>
     <t>单模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,6 +534,18 @@
   </si>
   <si>
     <t>0.8510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上一批二批特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.766093（h）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -648,6 +660,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -941,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E46"/>
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -962,20 +980,20 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1310,32 +1328,32 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" t="s">
         <v>90</v>
       </c>
@@ -1373,7 +1391,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B21" s="5">
@@ -1385,7 +1403,7 @@
       <c r="D21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="16" t="s">
         <v>94</v>
       </c>
       <c r="F21" s="5">
@@ -1399,7 +1417,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="5">
         <v>0.96786799999999995</v>
       </c>
@@ -1407,7 +1425,7 @@
         <v>0.86450000000000005</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="14"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="5">
         <v>0.62193299999999996</v>
       </c>
@@ -1419,7 +1437,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="5">
         <v>0.61551400000000001</v>
       </c>
@@ -1429,7 +1447,7 @@
       <c r="D23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="5" t="s">
         <v>103</v>
       </c>
@@ -1444,7 +1462,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5">
         <v>0.61586799999999997</v>
       </c>
@@ -1454,7 +1472,7 @@
       <c r="D24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="5" t="s">
         <v>102</v>
       </c>
@@ -1466,7 +1484,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="5">
         <v>0.95778399999999997</v>
       </c>
@@ -1476,7 +1494,7 @@
       <c r="D25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="5" t="s">
         <v>105</v>
       </c>
@@ -1491,7 +1509,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="11">
         <v>0.95588600000000001</v>
       </c>
@@ -1501,7 +1519,7 @@
       <c r="D26" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="5" t="s">
         <v>104</v>
       </c>
@@ -1513,7 +1531,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="5">
         <v>0.79371199999999997</v>
       </c>
@@ -1523,7 +1541,7 @@
       <c r="D27" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="5" t="s">
         <v>110</v>
       </c>
@@ -1535,13 +1553,15 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="5">
-        <v>0.78537100000000004</v>
+        <v>0.77947100000000002</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="16"/>
       <c r="F28" s="5" t="s">
         <v>113</v>
       </c>
@@ -1553,11 +1573,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="5" t="s">
         <v>116</v>
       </c>
@@ -1569,11 +1589,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="5" t="s">
         <v>117</v>
       </c>
@@ -1585,11 +1605,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="5" t="s">
         <v>117</v>
       </c>
@@ -1601,7 +1621,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E32" s="14"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="5" t="s">
         <v>122</v>
       </c>
@@ -1613,7 +1633,7 @@
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E33" s="14"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="6" t="s">
         <v>123</v>
       </c>
@@ -1625,7 +1645,7 @@
       </c>
     </row>
     <row r="34" spans="5:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E34" s="14"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="12" t="s">
         <v>127</v>
       </c>
@@ -1637,40 +1657,46 @@
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E35" s="14"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E36" s="14"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E37" s="14"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E38" s="14"/>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E39" s="14"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E40" s="14"/>
+      <c r="E40" s="16"/>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E41" s="14"/>
+      <c r="E41" s="16"/>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E42" s="14"/>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E43" s="14"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E44" s="14"/>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E45" s="14"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E46" s="14"/>
+      <c r="E46" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/sigle_model_cv .xlsx
+++ b/sigle_model_cv .xlsx
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1557,7 +1557,9 @@
       <c r="B28" s="5">
         <v>0.77947100000000002</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>0.83230000000000004</v>
+      </c>
       <c r="D28" s="14" t="s">
         <v>129</v>
       </c>
